--- a/utility_test/test1.xlsx
+++ b/utility_test/test1.xlsx
@@ -345,99 +345,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryRight="1" summaryBelow="1"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1" activeCell="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:2" r="4">
-      <c t="n" r="A4">
+    <row r="4" spans="1:2">
+      <c r="A4" t="n">
         <v>1.0</v>
       </c>
-      <c t="n" r="B4">
+      <c r="B4" t="n">
         <v>21085.0</v>
       </c>
     </row>
-    <row spans="1:2" r="5">
-      <c t="n" r="A5">
+    <row r="5" spans="1:2">
+      <c r="A5" t="n">
         <v>2.0</v>
       </c>
-      <c t="n" r="B5">
+      <c r="B5" t="n">
         <v>400.0</v>
       </c>
     </row>
-    <row spans="1:2" r="6">
-      <c t="n" r="A6">
+    <row r="6" spans="1:2">
+      <c r="A6" t="n">
         <v>3.0</v>
       </c>
-      <c t="n" r="B6">
+      <c r="B6" t="n">
         <v>19817.0</v>
       </c>
     </row>
-    <row spans="1:2" r="7">
-      <c t="n" r="A7">
+    <row r="7" spans="1:2">
+      <c r="A7" t="n">
         <v>4.0</v>
       </c>
-      <c t="n" r="B7">
+      <c r="B7" t="n">
         <v>25160.0</v>
       </c>
     </row>
-    <row spans="1:2" r="8">
-      <c t="n" r="A8">
+    <row r="8" spans="1:2">
+      <c r="A8" t="n">
         <v>5.0</v>
       </c>
-      <c t="n" r="B8">
+      <c r="B8" t="n">
         <v>5367.0</v>
       </c>
     </row>
-    <row spans="1:2" r="9">
-      <c t="n" r="A9">
+    <row r="9" spans="1:2">
+      <c r="A9" t="n">
         <v>6.0</v>
       </c>
-      <c t="n" r="B9">
+      <c r="B9" t="n">
         <v>28774.0</v>
       </c>
     </row>
-    <row spans="1:2" r="10">
-      <c t="n" r="A10">
+    <row r="10" spans="1:2">
+      <c r="A10" t="n">
         <v>7.0</v>
       </c>
-      <c t="n" r="B10">
+      <c r="B10" t="n">
         <v>24713.0</v>
       </c>
     </row>
-    <row spans="1:2" r="11">
-      <c t="n" r="A11">
+    <row r="11" spans="1:2">
+      <c r="A11" t="n">
         <v>8.0</v>
       </c>
-      <c t="n" r="B11">
+      <c r="B11" t="n">
         <v>24155.0</v>
       </c>
     </row>
-    <row spans="1:2" r="12">
-      <c t="n" r="A12">
+    <row r="12" spans="1:2">
+      <c r="A12" t="n">
         <v>9.0</v>
       </c>
-      <c t="n" r="B12">
+      <c r="B12" t="n">
         <v>18827.0</v>
       </c>
     </row>
-    <row spans="1:2" r="13">
-      <c t="n" r="A13">
+    <row r="13" spans="1:2">
+      <c r="A13" t="n">
         <v>10.0</v>
       </c>
-      <c t="n" r="B13">
+      <c r="B13" t="n">
         <v>29856.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" top="1" right="0.75" header="0.5" footer="0.5" left="0.75"/>
+  <pageMargins left="0.75" right="0.75" top="1" header="0.5" bottom="1" footer="0.5"/>
 </worksheet>
 </file>